--- a/File phân công.xlsx
+++ b/File phân công.xlsx
@@ -655,10 +655,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="11">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="C2" s="11">
-        <v>45629</v>
+        <v>45363</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11">
-        <v>45629</v>
+        <v>45364</v>
       </c>
       <c r="H2" s="12">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="11">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="C3" s="11">
-        <v>45629</v>
+        <v>45363</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="11">
-        <v>45629</v>
+        <v>45364</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="11">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="C4" s="11">
-        <v>45629</v>
+        <v>45363</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="11">
-        <v>45629</v>
+        <v>45364</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="11">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="C5" s="11">
-        <v>45629</v>
+        <v>45363</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="11">
-        <v>45629</v>
+        <v>45364</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
@@ -775,10 +775,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="11">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="C6" s="11">
-        <v>45629</v>
+        <v>45363</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="11">
-        <v>45629</v>
+        <v>45364</v>
       </c>
       <c r="H6" s="12">
         <v>1</v>
@@ -805,10 +805,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="11">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="C7" s="11">
-        <v>45629</v>
+        <v>45363</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="11">
-        <v>45629</v>
+        <v>45364</v>
       </c>
       <c r="H7" s="12">
         <v>1</v>
